--- a/biology/Médecine/Fibrocyte/Fibrocyte.xlsx
+++ b/biology/Médecine/Fibrocyte/Fibrocyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, un fibrocyte est un fibroblaste au repos, dit quiescent, que l'on trouve notamment au niveau de la cornée et des tendons.
 Le fibrocyte peut être provisoirement ou définitivement au repos, on y retrouve les mêmes organites que dans les fibroblastes. En revanche le fibrocyte possède un noyau condensé, c'est-à-dire que le matériel est sous la forme d'hétérochromatine, peu traduite, et possède une structure plus fusiforme (en fuseau) , les organites sont beaucoup moins impliqués dans la synthèse de protéines exportable. À noter que le fibrocyte peut passer à un état actif en devenant un fibroblaste, l'inverse est aussi vrai.
